--- a/vocabularies/Vocabularies.xlsx
+++ b/vocabularies/Vocabularies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2-dcat\vocabularies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>uri schema</t>
   </si>
@@ -162,6 +162,48 @@
   </si>
   <si>
     <t>http://purl.org/dc/dcmitype/</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2011/content#</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>gsp</t>
+  </si>
+  <si>
+    <t>http://www.opengis.net/ont/geosparql#</t>
+  </si>
+  <si>
+    <t>locn</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/locn#</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
   </si>
 </sst>
 </file>
@@ -741,10 +783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +890,62 @@
         <v>46</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
